--- a/program/data/T3500_33_digital/emi_field_3500.xlsx
+++ b/program/data/T3500_33_digital/emi_field_3500.xlsx
@@ -2766,31 +2766,31 @@
         <v>0.3547595473935266</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3461011679386714</v>
+        <v>0.03461011679386714</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3390808602725726</v>
+        <v>0.03390808602725726</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3339326346507667</v>
+        <v>0.03339326346507668</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3308905013287906</v>
+        <v>0.03308905013287906</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3308905013287906</v>
+        <v>0.03308905013287906</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.3339326346507667</v>
+        <v>0.03339326346507668</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3390808602725726</v>
+        <v>0.03390808602725726</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3461011679386714</v>
+        <v>0.03461011679386714</v>
       </c>
       <c r="AE16" t="n">
         <v>0.3547595473935266</v>
@@ -2912,43 +2912,43 @@
         <v>0.3596737627597957</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3470372089608179</v>
+        <v>0.03470372089608179</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3360387269505964</v>
+        <v>0.03360387269505964</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3264443064735947</v>
+        <v>0.03264443064735947</v>
       </c>
       <c r="W17" t="n">
-        <v>0.318721968040886</v>
+        <v>0.0318721968040886</v>
       </c>
       <c r="X17" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3095955680749575</v>
+        <v>0.03095955680749575</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.3084255167972744</v>
+        <v>0.03084255167972744</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.3095955680749575</v>
+        <v>0.03095955680749575</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.318721968040886</v>
+        <v>0.0318721968040886</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3264443064735947</v>
+        <v>0.03264443064735947</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.3360387269505964</v>
+        <v>0.03360387269505964</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.3470372089608179</v>
+        <v>0.03470372089608179</v>
       </c>
       <c r="AG17" t="n">
         <v>0.3596737627597957</v>
@@ -3061,49 +3061,49 @@
         <v>0.3578016807155027</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3430590346166952</v>
+        <v>0.03430590346166952</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3177859270187395</v>
+        <v>0.03177859270187396</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3072554655195912</v>
+        <v>0.03072554655195912</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2988310963202727</v>
+        <v>0.02988310963202727</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2925128194207838</v>
+        <v>0.02925128194207838</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.2871305835434413</v>
+        <v>0.02871305835434414</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2925128194207838</v>
+        <v>0.02925128194207838</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.2988310963202727</v>
+        <v>0.02988310963202727</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.3072554655195912</v>
+        <v>0.03072554655195912</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.3177859270187395</v>
+        <v>0.03177859270187396</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.3430590346166952</v>
+        <v>0.03430590346166952</v>
       </c>
       <c r="AH18" t="n">
         <v>0.3578016807155027</v>
@@ -3210,55 +3210,55 @@
         <v>0.3596737627597957</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3430590346166952</v>
+        <v>0.03430590346166952</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3276143577512778</v>
+        <v>0.03276143577512778</v>
       </c>
       <c r="T19" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3000011475979558</v>
+        <v>0.03000011475979558</v>
       </c>
       <c r="V19" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2789402245996594</v>
+        <v>0.02789402245996594</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2719199169335606</v>
+        <v>0.02719199169335606</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.2658356502896083</v>
+        <v>0.02658356502896083</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.2719199169335606</v>
+        <v>0.02719199169335606</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.2789402245996594</v>
+        <v>0.02789402245996594</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.3000011475979558</v>
+        <v>0.03000011475979558</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.3276143577512778</v>
+        <v>0.03276143577512778</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.3430590346166952</v>
+        <v>0.03430590346166952</v>
       </c>
       <c r="AI19" t="n">
         <v>0.3596737627597957</v>
@@ -3359,61 +3359,61 @@
         <v>0.3650559986371382</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3470372089608179</v>
+        <v>0.03470372089608179</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="S20" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2974270347870529</v>
+        <v>0.02974270347870529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2831524091993187</v>
+        <v>0.02831524091993187</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2705158554003408</v>
+        <v>0.02705158554003408</v>
       </c>
       <c r="W20" t="n">
-        <v>0.259751383645656</v>
+        <v>0.02597513836456561</v>
       </c>
       <c r="X20" t="n">
-        <v>0.251561024701874</v>
+        <v>0.0251561024701874</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2464127990800682</v>
+        <v>0.02464127990800682</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.2445407170357752</v>
+        <v>0.02445407170357752</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.2464127990800682</v>
+        <v>0.02464127990800682</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.251561024701874</v>
+        <v>0.0251561024701874</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.259751383645656</v>
+        <v>0.02597513836456561</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.2705158554003408</v>
+        <v>0.02705158554003408</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.2831524091993187</v>
+        <v>0.02831524091993187</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.2974270347870529</v>
+        <v>0.02974270347870529</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.3470372089608179</v>
+        <v>0.03470372089608179</v>
       </c>
       <c r="AJ20" t="n">
         <v>0.3650559986371382</v>
@@ -3511,61 +3511,61 @@
         <v>0.3547595473935266</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3360387269505964</v>
+        <v>0.03360387269505964</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3177859270187395</v>
+        <v>0.03177859270187396</v>
       </c>
       <c r="S21" t="n">
-        <v>0.3000011475979558</v>
+        <v>0.03000011475979558</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2831524091993187</v>
+        <v>0.02831524091993187</v>
       </c>
       <c r="U21" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2531990964906304</v>
+        <v>0.02531990964906304</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2410305632027258</v>
+        <v>0.02410305632027259</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2316701529812607</v>
+        <v>0.02316701529812607</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2255858863373084</v>
+        <v>0.02255858863373084</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2255858863373084</v>
+        <v>0.02255858863373084</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.2316701529812607</v>
+        <v>0.02316701529812607</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.2410305632027258</v>
+        <v>0.02410305632027259</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.2531990964906304</v>
+        <v>0.02531990964906304</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.2831524091993187</v>
+        <v>0.02831524091993187</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.3000011475979558</v>
+        <v>0.03000011475979558</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.3177859270187395</v>
+        <v>0.03177859270187396</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.3360387269505964</v>
+        <v>0.03360387269505964</v>
       </c>
       <c r="AJ21" t="n">
         <v>0.3547595473935266</v>
@@ -3660,67 +3660,67 @@
         <v>0.3659920396592846</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3461011679386714</v>
+        <v>0.03461011679386714</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3264443064735947</v>
+        <v>0.03264443064735947</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3072554655195912</v>
+        <v>0.03072554655195912</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2705158554003408</v>
+        <v>0.02705158554003408</v>
       </c>
       <c r="U22" t="n">
-        <v>0.2531990964906304</v>
+        <v>0.02531990964906304</v>
       </c>
       <c r="V22" t="n">
-        <v>0.2372863991141398</v>
+        <v>0.02372863991141398</v>
       </c>
       <c r="W22" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="X22" t="n">
-        <v>0.2122473017717207</v>
+        <v>0.02122473017717207</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.2047589735945486</v>
+        <v>0.02047589735945486</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.2021848607836458</v>
+        <v>0.02021848607836458</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.2047589735945486</v>
+        <v>0.02047589735945486</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.2122473017717207</v>
+        <v>0.02122473017717207</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.2372863991141398</v>
+        <v>0.02372863991141398</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.2531990964906304</v>
+        <v>0.02531990964906304</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.2705158554003408</v>
+        <v>0.02705158554003408</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.3072554655195912</v>
+        <v>0.03072554655195912</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.3264443064735947</v>
+        <v>0.03264443064735947</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.3461011679386714</v>
+        <v>0.03461011679386714</v>
       </c>
       <c r="AK22" t="n">
         <v>0.3659920396592846</v>
@@ -3812,67 +3812,67 @@
         <v>0.3596737627597957</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3390808602725726</v>
+        <v>0.03390808602725726</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.318721968040886</v>
+        <v>0.0318721968040886</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2988310963202727</v>
+        <v>0.02988310963202727</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2789402245996594</v>
+        <v>0.02789402245996594</v>
       </c>
       <c r="T23" t="n">
-        <v>0.259751383645656</v>
+        <v>0.02597513836456561</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2410305632027258</v>
+        <v>0.02410305632027259</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="W23" t="n">
-        <v>0.2073330864054515</v>
+        <v>0.02073330864054515</v>
       </c>
       <c r="X23" t="n">
-        <v>0.1937604915843271</v>
+        <v>0.01937604915843271</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.1841660711073254</v>
+        <v>0.01841660711073255</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.1808899275298126</v>
+        <v>0.01808899275298127</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.1841660711073254</v>
+        <v>0.01841660711073255</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.1937604915843271</v>
+        <v>0.01937604915843271</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.2073330864054515</v>
+        <v>0.02073330864054515</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.2410305632027258</v>
+        <v>0.02410305632027259</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.259751383645656</v>
+        <v>0.02597513836456561</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.2789402245996594</v>
+        <v>0.02789402245996594</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2988310963202727</v>
+        <v>0.02988310963202727</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.318721968040886</v>
+        <v>0.0318721968040886</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.3390808602725726</v>
+        <v>0.03390808602725726</v>
       </c>
       <c r="AK23" t="n">
         <v>0.3596737627597957</v>
@@ -3964,67 +3964,67 @@
         <v>0.3547595473935266</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3339326346507667</v>
+        <v>0.03339326346507668</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2925128194207838</v>
+        <v>0.02925128194207838</v>
       </c>
       <c r="S24" t="n">
-        <v>0.2719199169335606</v>
+        <v>0.02719199169335606</v>
       </c>
       <c r="T24" t="n">
-        <v>0.251561024701874</v>
+        <v>0.0251561024701874</v>
       </c>
       <c r="U24" t="n">
-        <v>0.2316701529812607</v>
+        <v>0.02316701529812607</v>
       </c>
       <c r="V24" t="n">
-        <v>0.2122473017717207</v>
+        <v>0.02122473017717207</v>
       </c>
       <c r="W24" t="n">
-        <v>0.1937604915843271</v>
+        <v>0.01937604915843271</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1771457634412266</v>
+        <v>0.01771457634412266</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1645092096422488</v>
+        <v>0.01645092096422488</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.1595949942759796</v>
+        <v>0.01595949942759796</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.1645092096422488</v>
+        <v>0.01645092096422488</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.1771457634412266</v>
+        <v>0.01771457634412266</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1937604915843271</v>
+        <v>0.01937604915843271</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.2122473017717207</v>
+        <v>0.02122473017717207</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.2316701529812607</v>
+        <v>0.02316701529812607</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.251561024701874</v>
+        <v>0.0251561024701874</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.2719199169335606</v>
+        <v>0.02719199169335606</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.2925128194207838</v>
+        <v>0.02925128194207838</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.3339326346507667</v>
+        <v>0.03339326346507668</v>
       </c>
       <c r="AK24" t="n">
         <v>0.3547595473935266</v>
@@ -4116,67 +4116,67 @@
         <v>0.351951424327087</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3308905013287906</v>
+        <v>0.03308905013287906</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3095955680749575</v>
+        <v>0.03095955680749575</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2464127990800682</v>
+        <v>0.02464127990800682</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2255858863373084</v>
+        <v>0.02255858863373084</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2047589735945486</v>
+        <v>0.02047589735945486</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1841660711073254</v>
+        <v>0.01841660711073255</v>
       </c>
       <c r="X25" t="n">
-        <v>0.1645092096422488</v>
+        <v>0.01645092096422488</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1471924507325384</v>
+        <v>0.01471924507325384</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.1383000610221465</v>
+        <v>0.01383000610221465</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1471924507325384</v>
+        <v>0.01471924507325384</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1645092096422488</v>
+        <v>0.01645092096422488</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1841660711073254</v>
+        <v>0.01841660711073255</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.2047589735945486</v>
+        <v>0.02047589735945486</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.2255858863373084</v>
+        <v>0.02255858863373084</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.2464127990800682</v>
+        <v>0.02464127990800682</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.3095955680749575</v>
+        <v>0.03095955680749575</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.3308905013287906</v>
+        <v>0.03308905013287906</v>
       </c>
       <c r="AK25" t="n">
         <v>0.351951424327087</v>
@@ -4268,67 +4268,67 @@
         <v>0.3510153833049405</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3084255167972744</v>
+        <v>0.03084255167972744</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2871305835434413</v>
+        <v>0.02871305835434414</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2658356502896083</v>
+        <v>0.02658356502896083</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2445407170357752</v>
+        <v>0.02445407170357752</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2021848607836458</v>
+        <v>0.02021848607836458</v>
       </c>
       <c r="W26" t="n">
-        <v>0.1808899275298126</v>
+        <v>0.01808899275298127</v>
       </c>
       <c r="X26" t="n">
-        <v>0.1595949942759796</v>
+        <v>0.01595949942759796</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.1383000610221465</v>
+        <v>0.01383000610221465</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.1170051277683135</v>
+        <v>0.01170051277683135</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.1383000610221465</v>
+        <v>0.01383000610221465</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.1595949942759796</v>
+        <v>0.01595949942759796</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1808899275298126</v>
+        <v>0.01808899275298127</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.2021848607836458</v>
+        <v>0.02021848607836458</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.2445407170357752</v>
+        <v>0.02445407170357752</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.2658356502896083</v>
+        <v>0.02658356502896083</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2871305835434413</v>
+        <v>0.02871305835434414</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.3084255167972744</v>
+        <v>0.03084255167972744</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="AK26" t="n">
         <v>0.3510153833049405</v>
@@ -4420,67 +4420,67 @@
         <v>0.351951424327087</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3308905013287906</v>
+        <v>0.03308905013287906</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3095955680749575</v>
+        <v>0.03095955680749575</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="S27" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2464127990800682</v>
+        <v>0.02464127990800682</v>
       </c>
       <c r="U27" t="n">
-        <v>0.2255858863373084</v>
+        <v>0.02255858863373084</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2047589735945486</v>
+        <v>0.02047589735945486</v>
       </c>
       <c r="W27" t="n">
-        <v>0.1841660711073254</v>
+        <v>0.01841660711073255</v>
       </c>
       <c r="X27" t="n">
-        <v>0.1645092096422488</v>
+        <v>0.01645092096422488</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.1471924507325384</v>
+        <v>0.01471924507325384</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.1383000610221465</v>
+        <v>0.01383000610221465</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.1471924507325384</v>
+        <v>0.01471924507325384</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.1645092096422488</v>
+        <v>0.01645092096422488</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.1841660711073254</v>
+        <v>0.01841660711073255</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.2047589735945486</v>
+        <v>0.02047589735945486</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.2255858863373084</v>
+        <v>0.02255858863373084</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.2464127990800682</v>
+        <v>0.02464127990800682</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.3095955680749575</v>
+        <v>0.03095955680749575</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.3308905013287906</v>
+        <v>0.03308905013287906</v>
       </c>
       <c r="AK27" t="n">
         <v>0.351951424327087</v>
@@ -4572,67 +4572,67 @@
         <v>0.3547595473935266</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3339326346507667</v>
+        <v>0.03339326346507668</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2925128194207838</v>
+        <v>0.02925128194207838</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2719199169335606</v>
+        <v>0.02719199169335606</v>
       </c>
       <c r="T28" t="n">
-        <v>0.251561024701874</v>
+        <v>0.0251561024701874</v>
       </c>
       <c r="U28" t="n">
-        <v>0.2316701529812607</v>
+        <v>0.02316701529812607</v>
       </c>
       <c r="V28" t="n">
-        <v>0.2122473017717207</v>
+        <v>0.02122473017717207</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1937604915843271</v>
+        <v>0.01937604915843271</v>
       </c>
       <c r="X28" t="n">
-        <v>0.1771457634412266</v>
+        <v>0.01771457634412266</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1645092096422488</v>
+        <v>0.01645092096422488</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.1595949942759796</v>
+        <v>0.01595949942759796</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.1645092096422488</v>
+        <v>0.01645092096422488</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.1771457634412266</v>
+        <v>0.01771457634412266</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1937604915843271</v>
+        <v>0.01937604915843271</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.2122473017717207</v>
+        <v>0.02122473017717207</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.2316701529812607</v>
+        <v>0.02316701529812607</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.251561024701874</v>
+        <v>0.0251561024701874</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.2719199169335606</v>
+        <v>0.02719199169335606</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.2925128194207838</v>
+        <v>0.02925128194207838</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.3339326346507667</v>
+        <v>0.03339326346507668</v>
       </c>
       <c r="AK28" t="n">
         <v>0.3547595473935266</v>
@@ -4724,67 +4724,67 @@
         <v>0.3596737627597957</v>
       </c>
       <c r="P29" t="n">
-        <v>0.3390808602725726</v>
+        <v>0.03390808602725726</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.318721968040886</v>
+        <v>0.0318721968040886</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2988310963202727</v>
+        <v>0.02988310963202727</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2789402245996594</v>
+        <v>0.02789402245996594</v>
       </c>
       <c r="T29" t="n">
-        <v>0.259751383645656</v>
+        <v>0.02597513836456561</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2410305632027258</v>
+        <v>0.02410305632027259</v>
       </c>
       <c r="V29" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="W29" t="n">
-        <v>0.2073330864054515</v>
+        <v>0.02073330864054515</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1937604915843271</v>
+        <v>0.01937604915843271</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1841660711073254</v>
+        <v>0.01841660711073255</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.1808899275298126</v>
+        <v>0.01808899275298127</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.1841660711073254</v>
+        <v>0.01841660711073255</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1937604915843271</v>
+        <v>0.01937604915843271</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.2073330864054515</v>
+        <v>0.02073330864054515</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.2410305632027258</v>
+        <v>0.02410305632027259</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.259751383645656</v>
+        <v>0.02597513836456561</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.2789402245996594</v>
+        <v>0.02789402245996594</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.2988310963202727</v>
+        <v>0.02988310963202727</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.318721968040886</v>
+        <v>0.0318721968040886</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.3390808602725726</v>
+        <v>0.03390808602725726</v>
       </c>
       <c r="AK29" t="n">
         <v>0.3596737627597957</v>
@@ -4876,67 +4876,67 @@
         <v>0.3659920396592846</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3461011679386714</v>
+        <v>0.03461011679386714</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3264443064735947</v>
+        <v>0.03264443064735947</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3072554655195912</v>
+        <v>0.03072554655195912</v>
       </c>
       <c r="S30" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2705158554003408</v>
+        <v>0.02705158554003408</v>
       </c>
       <c r="U30" t="n">
-        <v>0.2531990964906304</v>
+        <v>0.02531990964906304</v>
       </c>
       <c r="V30" t="n">
-        <v>0.2372863991141398</v>
+        <v>0.02372863991141398</v>
       </c>
       <c r="W30" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="X30" t="n">
-        <v>0.2122473017717207</v>
+        <v>0.02122473017717207</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2047589735945486</v>
+        <v>0.02047589735945486</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.2021848607836458</v>
+        <v>0.02021848607836458</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.2047589735945486</v>
+        <v>0.02047589735945486</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.2122473017717207</v>
+        <v>0.02122473017717207</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.2372863991141398</v>
+        <v>0.02372863991141398</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.2531990964906304</v>
+        <v>0.02531990964906304</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.2705158554003408</v>
+        <v>0.02705158554003408</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.3072554655195912</v>
+        <v>0.03072554655195912</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.3264443064735947</v>
+        <v>0.03264443064735947</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.3461011679386714</v>
+        <v>0.03461011679386714</v>
       </c>
       <c r="AK30" t="n">
         <v>0.3659920396592846</v>
@@ -5031,61 +5031,61 @@
         <v>0.3547595473935266</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3360387269505964</v>
+        <v>0.03360387269505964</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3177859270187395</v>
+        <v>0.03177859270187396</v>
       </c>
       <c r="S31" t="n">
-        <v>0.3000011475979558</v>
+        <v>0.03000011475979558</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2831524091993187</v>
+        <v>0.02831524091993187</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="V31" t="n">
-        <v>0.2531990964906304</v>
+        <v>0.02531990964906304</v>
       </c>
       <c r="W31" t="n">
-        <v>0.2410305632027258</v>
+        <v>0.02410305632027259</v>
       </c>
       <c r="X31" t="n">
-        <v>0.2316701529812607</v>
+        <v>0.02316701529812607</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2255858863373084</v>
+        <v>0.02255858863373084</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.2234797940374788</v>
+        <v>0.02234797940374788</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.2255858863373084</v>
+        <v>0.02255858863373084</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.2316701529812607</v>
+        <v>0.02316701529812607</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.2410305632027258</v>
+        <v>0.02410305632027259</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.2531990964906304</v>
+        <v>0.02531990964906304</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.2831524091993187</v>
+        <v>0.02831524091993187</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.3000011475979558</v>
+        <v>0.03000011475979558</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.3177859270187395</v>
+        <v>0.03177859270187396</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.3360387269505964</v>
+        <v>0.03360387269505964</v>
       </c>
       <c r="AJ31" t="n">
         <v>0.3547595473935266</v>
@@ -5183,61 +5183,61 @@
         <v>0.3650559986371382</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3470372089608179</v>
+        <v>0.03470372089608179</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="S32" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="T32" t="n">
-        <v>0.2974270347870529</v>
+        <v>0.02974270347870529</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2831524091993187</v>
+        <v>0.02831524091993187</v>
       </c>
       <c r="V32" t="n">
-        <v>0.2705158554003408</v>
+        <v>0.02705158554003408</v>
       </c>
       <c r="W32" t="n">
-        <v>0.259751383645656</v>
+        <v>0.02597513836456561</v>
       </c>
       <c r="X32" t="n">
-        <v>0.251561024701874</v>
+        <v>0.0251561024701874</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2464127990800682</v>
+        <v>0.02464127990800682</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.2445407170357752</v>
+        <v>0.02445407170357752</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.2464127990800682</v>
+        <v>0.02464127990800682</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.251561024701874</v>
+        <v>0.0251561024701874</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.259751383645656</v>
+        <v>0.02597513836456561</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.2705158554003408</v>
+        <v>0.02705158554003408</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.2831524091993187</v>
+        <v>0.02831524091993187</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.2974270347870529</v>
+        <v>0.02974270347870529</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.3470372089608179</v>
+        <v>0.03470372089608179</v>
       </c>
       <c r="AJ32" t="n">
         <v>0.3650559986371382</v>
@@ -5338,55 +5338,55 @@
         <v>0.3596737627597957</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3430590346166952</v>
+        <v>0.03430590346166952</v>
       </c>
       <c r="S33" t="n">
-        <v>0.3276143577512778</v>
+        <v>0.03276143577512778</v>
       </c>
       <c r="T33" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3000011475979558</v>
+        <v>0.03000011475979558</v>
       </c>
       <c r="V33" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="W33" t="n">
-        <v>0.2789402245996594</v>
+        <v>0.02789402245996594</v>
       </c>
       <c r="X33" t="n">
-        <v>0.2719199169335606</v>
+        <v>0.02719199169335606</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.2658356502896083</v>
+        <v>0.02658356502896083</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.2674737220783647</v>
+        <v>0.02674737220783647</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.2719199169335606</v>
+        <v>0.02719199169335606</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.2789402245996594</v>
+        <v>0.02789402245996594</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.3000011475979558</v>
+        <v>0.03000011475979558</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.3276143577512778</v>
+        <v>0.03276143577512778</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.3430590346166952</v>
+        <v>0.03430590346166952</v>
       </c>
       <c r="AI33" t="n">
         <v>0.3596737627597957</v>
@@ -5493,49 +5493,49 @@
         <v>0.3578016807155027</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3430590346166952</v>
+        <v>0.03430590346166952</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="U34" t="n">
-        <v>0.3177859270187395</v>
+        <v>0.03177859270187396</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3072554655195912</v>
+        <v>0.03072554655195912</v>
       </c>
       <c r="W34" t="n">
-        <v>0.2988310963202727</v>
+        <v>0.02988310963202727</v>
       </c>
       <c r="X34" t="n">
-        <v>0.2925128194207838</v>
+        <v>0.02925128194207838</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.2871305835434413</v>
+        <v>0.02871305835434414</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.2885346450766611</v>
+        <v>0.02885346450766611</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.2925128194207838</v>
+        <v>0.02925128194207838</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.2988310963202727</v>
+        <v>0.02988310963202727</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.3072554655195912</v>
+        <v>0.03072554655195912</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.3177859270187395</v>
+        <v>0.03177859270187396</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.3430590346166952</v>
+        <v>0.03430590346166952</v>
       </c>
       <c r="AH34" t="n">
         <v>0.3578016807155027</v>
@@ -5648,43 +5648,43 @@
         <v>0.3596737627597957</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3470372089608179</v>
+        <v>0.03470372089608179</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3360387269505964</v>
+        <v>0.03360387269505964</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3264443064735947</v>
+        <v>0.03264443064735947</v>
       </c>
       <c r="W35" t="n">
-        <v>0.318721968040886</v>
+        <v>0.0318721968040886</v>
       </c>
       <c r="X35" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.3095955680749575</v>
+        <v>0.03095955680749575</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.3084255167972744</v>
+        <v>0.03084255167972744</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.3095955680749575</v>
+        <v>0.03095955680749575</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.313105721908007</v>
+        <v>0.0313105721908007</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.318721968040886</v>
+        <v>0.0318721968040886</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.3264443064735947</v>
+        <v>0.03264443064735947</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.3360387269505964</v>
+        <v>0.03360387269505964</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.3470372089608179</v>
+        <v>0.03470372089608179</v>
       </c>
       <c r="AG35" t="n">
         <v>0.3596737627597957</v>
@@ -5806,31 +5806,31 @@
         <v>0.3547595473935266</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3461011679386714</v>
+        <v>0.03461011679386714</v>
       </c>
       <c r="W36" t="n">
-        <v>0.3390808602725726</v>
+        <v>0.03390808602725726</v>
       </c>
       <c r="X36" t="n">
-        <v>0.3339326346507667</v>
+        <v>0.03339326346507668</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.3308905013287906</v>
+        <v>0.03308905013287906</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.3297204500511074</v>
+        <v>0.03297204500511075</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.3308905013287906</v>
+        <v>0.03308905013287906</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.3339326346507667</v>
+        <v>0.03339326346507668</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.3390808602725726</v>
+        <v>0.03390808602725726</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.3461011679386714</v>
+        <v>0.03461011679386714</v>
       </c>
       <c r="AE36" t="n">
         <v>0.3547595473935266</v>
